--- a/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展项目数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18396</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7990</v>
+      </c>
       <c r="E2" t="n">
-        <v>53641</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>232158</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18038</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1202</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15022</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3956</v>
+      </c>
+      <c r="L2" t="n">
+        <v>808</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1877</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1239</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4360</v>
+      </c>
+      <c r="P2" t="n">
+        <v>373</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>758</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2812</v>
+      </c>
+      <c r="S2" t="n">
+        <v>141</v>
+      </c>
+      <c r="T2" t="n">
+        <v>884</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4057</v>
+      </c>
+      <c r="V2" t="n">
+        <v>65</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27792</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>585</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1827</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3610</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6767</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1141</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26552</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>22938</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1602</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5617</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6004</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2917</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2742</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>7514</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21767</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>143448</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>287524</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5269</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21532</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1386</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18372</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1457</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>987</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>6183</v>
+      </c>
+      <c r="P3" t="n">
+        <v>451</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1121</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>227</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1161</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4585</v>
+      </c>
+      <c r="V3" t="n">
+        <v>85</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2957</v>
+      </c>
+      <c r="X3" t="n">
+        <v>33505</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>1854</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3046</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6648</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>32124</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>28306</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1748</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9697</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8164</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3798</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>10101</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>26763</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>194400</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>322567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5987</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24585</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1652</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25419</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1745</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1413</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>6966</v>
+      </c>
+      <c r="P4" t="n">
+        <v>464</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1162</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>256</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1285</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4483</v>
+      </c>
+      <c r="V4" t="n">
+        <v>105</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3079</v>
+      </c>
+      <c r="X4" t="n">
+        <v>37415</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1913</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3284</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7441</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>36382</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>28306</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2087</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11229</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9690</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>372</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4530</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>9767</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18396</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24994</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7990</v>
-      </c>
+        <v>29754</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>232158</v>
+        <v>342507</v>
       </c>
       <c r="F5" t="n">
-        <v>3545</v>
+        <v>6791</v>
       </c>
       <c r="G5" t="n">
-        <v>18038</v>
+        <v>26366</v>
       </c>
       <c r="H5" t="n">
-        <v>1202</v>
+        <v>1698</v>
       </c>
       <c r="I5" t="n">
-        <v>15022</v>
+        <v>23791</v>
       </c>
       <c r="J5" t="n">
-        <v>1047</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3956</v>
-      </c>
+        <v>2070</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>808</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1877</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1239</v>
-      </c>
+        <v>1654</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>4360</v>
+        <v>7656</v>
       </c>
       <c r="P5" t="n">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="Q5" t="n">
-        <v>758</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2812</v>
-      </c>
+        <v>1338</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="T5" t="n">
-        <v>884</v>
+        <v>1157</v>
       </c>
       <c r="U5" t="n">
-        <v>4057</v>
+        <v>4143</v>
       </c>
       <c r="V5" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="W5" t="n">
-        <v>2344</v>
+        <v>3208</v>
       </c>
       <c r="X5" t="n">
-        <v>27792</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>585</v>
-      </c>
+        <v>40031</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1827</v>
+        <v>2154</v>
       </c>
       <c r="AA5" t="n">
-        <v>3610</v>
+        <v>3057</v>
       </c>
       <c r="AB5" t="n">
-        <v>6767</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1141</v>
-      </c>
+        <v>7693</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>26552</v>
+        <v>35761</v>
       </c>
       <c r="AE5" t="n">
-        <v>22938</v>
+        <v>31539</v>
       </c>
       <c r="AF5" t="n">
-        <v>1602</v>
+        <v>2562</v>
       </c>
       <c r="AG5" t="n">
-        <v>5617</v>
+        <v>12107</v>
       </c>
       <c r="AH5" t="n">
-        <v>6004</v>
+        <v>10599</v>
       </c>
       <c r="AI5" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2917</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2742</v>
-      </c>
+        <v>4874</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>7514</v>
+        <v>9871</v>
       </c>
       <c r="AM5" t="n">
-        <v>191</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21767</v>
+        <v>24197</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>287524</v>
+        <v>309895</v>
       </c>
       <c r="F6" t="n">
-        <v>5269</v>
+        <v>6750</v>
       </c>
       <c r="G6" t="n">
-        <v>21532</v>
+        <v>26387</v>
       </c>
       <c r="H6" t="n">
-        <v>1386</v>
+        <v>1962</v>
       </c>
       <c r="I6" t="n">
-        <v>18372</v>
+        <v>21761</v>
       </c>
       <c r="J6" t="n">
-        <v>1457</v>
+        <v>2088</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>987</v>
+        <v>1484</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>6183</v>
+        <v>7342</v>
       </c>
       <c r="P6" t="n">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="Q6" t="n">
-        <v>1121</v>
+        <v>1538</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="T6" t="n">
-        <v>1161</v>
+        <v>1301</v>
       </c>
       <c r="U6" t="n">
-        <v>4585</v>
+        <v>2968</v>
       </c>
       <c r="V6" t="n">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="W6" t="n">
-        <v>2957</v>
+        <v>3292</v>
       </c>
       <c r="X6" t="n">
-        <v>33505</v>
+        <v>35695</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>1854</v>
+        <v>2043</v>
       </c>
       <c r="AA6" t="n">
-        <v>3046</v>
+        <v>2165</v>
       </c>
       <c r="AB6" t="n">
-        <v>6648</v>
+        <v>6918</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>32124</v>
+        <v>27231</v>
       </c>
       <c r="AE6" t="n">
-        <v>28306</v>
+        <v>29563</v>
       </c>
       <c r="AF6" t="n">
-        <v>1748</v>
+        <v>2635</v>
       </c>
       <c r="AG6" t="n">
-        <v>9697</v>
+        <v>11819</v>
       </c>
       <c r="AH6" t="n">
-        <v>8164</v>
+        <v>10766</v>
       </c>
       <c r="AI6" t="n">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3798</v>
+        <v>4892</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>10101</v>
+        <v>8608</v>
       </c>
       <c r="AM6" t="n">
-        <v>237</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26763</v>
+        <v>28589</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>322567</v>
+        <v>360997</v>
       </c>
       <c r="F7" t="n">
-        <v>5987</v>
+        <v>8137</v>
       </c>
       <c r="G7" t="n">
-        <v>24585</v>
+        <v>29675</v>
       </c>
       <c r="H7" t="n">
-        <v>1652</v>
+        <v>2282</v>
       </c>
       <c r="I7" t="n">
-        <v>25419</v>
+        <v>24434</v>
       </c>
       <c r="J7" t="n">
-        <v>1745</v>
+        <v>2617</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1413</v>
+        <v>2013</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>6966</v>
+        <v>8348</v>
       </c>
       <c r="P7" t="n">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
-        <v>1162</v>
+        <v>1822</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>256</v>
+        <v>411</v>
       </c>
       <c r="T7" t="n">
-        <v>1285</v>
+        <v>1359</v>
       </c>
       <c r="U7" t="n">
-        <v>4483</v>
+        <v>2790</v>
       </c>
       <c r="V7" t="n">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="W7" t="n">
-        <v>3079</v>
+        <v>3460</v>
       </c>
       <c r="X7" t="n">
-        <v>37415</v>
+        <v>41883</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>1913</v>
+        <v>2071</v>
       </c>
       <c r="AA7" t="n">
-        <v>3284</v>
+        <v>2342</v>
       </c>
       <c r="AB7" t="n">
-        <v>7441</v>
+        <v>7967</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>36382</v>
+        <v>33811</v>
       </c>
       <c r="AE7" t="n">
-        <v>28306</v>
+        <v>33547</v>
       </c>
       <c r="AF7" t="n">
-        <v>2087</v>
+        <v>3276</v>
       </c>
       <c r="AG7" t="n">
-        <v>11229</v>
+        <v>15106</v>
       </c>
       <c r="AH7" t="n">
-        <v>9690</v>
+        <v>12704</v>
       </c>
       <c r="AI7" t="n">
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4530</v>
+        <v>5856</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>9767</v>
+        <v>8911</v>
       </c>
       <c r="AM7" t="n">
-        <v>300</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29754</v>
+        <v>35366</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>342507</v>
+        <v>445029</v>
       </c>
       <c r="F8" t="n">
-        <v>6791</v>
+        <v>10227</v>
       </c>
       <c r="G8" t="n">
-        <v>26366</v>
+        <v>35540</v>
       </c>
       <c r="H8" t="n">
-        <v>1698</v>
+        <v>2849</v>
       </c>
       <c r="I8" t="n">
-        <v>23791</v>
+        <v>27784</v>
       </c>
       <c r="J8" t="n">
-        <v>2070</v>
+        <v>3586</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1654</v>
+        <v>3292</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>7656</v>
+        <v>10115</v>
       </c>
       <c r="P8" t="n">
-        <v>442</v>
+        <v>754</v>
       </c>
       <c r="Q8" t="n">
-        <v>1338</v>
+        <v>2564</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>286</v>
+        <v>580</v>
       </c>
       <c r="T8" t="n">
-        <v>1157</v>
+        <v>1372</v>
       </c>
       <c r="U8" t="n">
-        <v>4143</v>
+        <v>3324</v>
       </c>
       <c r="V8" t="n">
-        <v>157</v>
+        <v>391</v>
       </c>
       <c r="W8" t="n">
-        <v>3208</v>
+        <v>4093</v>
       </c>
       <c r="X8" t="n">
-        <v>40031</v>
+        <v>51279</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>2154</v>
+        <v>2490</v>
       </c>
       <c r="AA8" t="n">
-        <v>3057</v>
+        <v>2652</v>
       </c>
       <c r="AB8" t="n">
-        <v>7693</v>
+        <v>9605</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>35761</v>
+        <v>42905</v>
       </c>
       <c r="AE8" t="n">
-        <v>31539</v>
+        <v>40179</v>
       </c>
       <c r="AF8" t="n">
-        <v>2562</v>
+        <v>4373</v>
       </c>
       <c r="AG8" t="n">
-        <v>12107</v>
+        <v>19645</v>
       </c>
       <c r="AH8" t="n">
-        <v>10599</v>
+        <v>16708</v>
       </c>
       <c r="AI8" t="n">
-        <v>460</v>
+        <v>563</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4874</v>
+        <v>7157</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>9871</v>
+        <v>10738</v>
       </c>
       <c r="AM8" t="n">
-        <v>438</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24197</v>
+        <v>37614</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>309895</v>
+        <v>472299</v>
       </c>
       <c r="F9" t="n">
-        <v>6750</v>
+        <v>10685</v>
       </c>
       <c r="G9" t="n">
-        <v>26387</v>
+        <v>36708</v>
       </c>
       <c r="H9" t="n">
-        <v>1962</v>
+        <v>2956</v>
       </c>
       <c r="I9" t="n">
-        <v>21761</v>
+        <v>28167</v>
       </c>
       <c r="J9" t="n">
-        <v>2088</v>
+        <v>4046</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1484</v>
+        <v>3960</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>7342</v>
+        <v>11347</v>
       </c>
       <c r="P9" t="n">
-        <v>510</v>
+        <v>894</v>
       </c>
       <c r="Q9" t="n">
-        <v>1538</v>
+        <v>2785</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>320</v>
+        <v>525</v>
       </c>
       <c r="T9" t="n">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="U9" t="n">
-        <v>2968</v>
+        <v>2814</v>
       </c>
       <c r="V9" t="n">
-        <v>171</v>
+        <v>454</v>
       </c>
       <c r="W9" t="n">
-        <v>3292</v>
+        <v>4685</v>
       </c>
       <c r="X9" t="n">
-        <v>35695</v>
+        <v>52317</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>2043</v>
+        <v>2812</v>
       </c>
       <c r="AA9" t="n">
-        <v>2165</v>
+        <v>1825</v>
       </c>
       <c r="AB9" t="n">
-        <v>6918</v>
+        <v>11663</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>27231</v>
+        <v>44990</v>
       </c>
       <c r="AE9" t="n">
-        <v>29563</v>
+        <v>44338</v>
       </c>
       <c r="AF9" t="n">
-        <v>2635</v>
+        <v>5114</v>
       </c>
       <c r="AG9" t="n">
-        <v>11819</v>
+        <v>23093</v>
       </c>
       <c r="AH9" t="n">
-        <v>10766</v>
+        <v>19898</v>
       </c>
       <c r="AI9" t="n">
-        <v>440</v>
+        <v>709</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4892</v>
+        <v>8095</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>8608</v>
+        <v>9805</v>
       </c>
       <c r="AM9" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28589</v>
+        <v>48759</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>360997</v>
+        <v>598072</v>
       </c>
       <c r="F10" t="n">
-        <v>8137</v>
+        <v>12736</v>
       </c>
       <c r="G10" t="n">
-        <v>29675</v>
+        <v>42246</v>
       </c>
       <c r="H10" t="n">
-        <v>2282</v>
+        <v>3880</v>
       </c>
       <c r="I10" t="n">
-        <v>24434</v>
+        <v>32296</v>
       </c>
       <c r="J10" t="n">
-        <v>2617</v>
+        <v>5468</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2013</v>
+        <v>5944</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>8348</v>
+        <v>13567</v>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>924</v>
       </c>
       <c r="Q10" t="n">
-        <v>1822</v>
+        <v>3882</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>411</v>
+        <v>873</v>
       </c>
       <c r="T10" t="n">
-        <v>1359</v>
+        <v>1496</v>
       </c>
       <c r="U10" t="n">
-        <v>2790</v>
+        <v>2952</v>
       </c>
       <c r="V10" t="n">
-        <v>236</v>
+        <v>785</v>
       </c>
       <c r="W10" t="n">
-        <v>3460</v>
+        <v>7287</v>
       </c>
       <c r="X10" t="n">
-        <v>41883</v>
+        <v>64676</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>2071</v>
+        <v>3307</v>
       </c>
       <c r="AA10" t="n">
-        <v>2342</v>
+        <v>2502</v>
       </c>
       <c r="AB10" t="n">
-        <v>7967</v>
+        <v>15963</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>33811</v>
+        <v>59290</v>
       </c>
       <c r="AE10" t="n">
-        <v>33547</v>
+        <v>55929</v>
       </c>
       <c r="AF10" t="n">
-        <v>3276</v>
+        <v>6455</v>
       </c>
       <c r="AG10" t="n">
-        <v>15106</v>
+        <v>31787</v>
       </c>
       <c r="AH10" t="n">
-        <v>12704</v>
+        <v>26859</v>
       </c>
       <c r="AI10" t="n">
-        <v>476</v>
+        <v>900</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5856</v>
+        <v>9491</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>8911</v>
+        <v>12180</v>
       </c>
       <c r="AM10" t="n">
-        <v>399</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35366</v>
+        <v>60111</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>445029</v>
+        <v>714527</v>
       </c>
       <c r="F11" t="n">
-        <v>10227</v>
+        <v>15535</v>
       </c>
       <c r="G11" t="n">
-        <v>35540</v>
+        <v>49404</v>
       </c>
       <c r="H11" t="n">
-        <v>2849</v>
+        <v>4640</v>
       </c>
       <c r="I11" t="n">
-        <v>27784</v>
+        <v>38295</v>
       </c>
       <c r="J11" t="n">
-        <v>3586</v>
+        <v>6903</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3292</v>
+        <v>7279</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>10115</v>
+        <v>15606</v>
       </c>
       <c r="P11" t="n">
-        <v>754</v>
+        <v>1047</v>
       </c>
       <c r="Q11" t="n">
-        <v>2564</v>
+        <v>4317</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="T11" t="n">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="U11" t="n">
-        <v>3324</v>
+        <v>3310</v>
       </c>
       <c r="V11" t="n">
-        <v>391</v>
+        <v>1046</v>
       </c>
       <c r="W11" t="n">
-        <v>4093</v>
+        <v>8555</v>
       </c>
       <c r="X11" t="n">
-        <v>51279</v>
+        <v>74572</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>2490</v>
+        <v>4359</v>
       </c>
       <c r="AA11" t="n">
-        <v>2652</v>
+        <v>2404</v>
       </c>
       <c r="AB11" t="n">
-        <v>9605</v>
+        <v>19462</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>42905</v>
+        <v>72142</v>
       </c>
       <c r="AE11" t="n">
-        <v>40179</v>
+        <v>66619</v>
       </c>
       <c r="AF11" t="n">
-        <v>4373</v>
+        <v>8348</v>
       </c>
       <c r="AG11" t="n">
-        <v>19645</v>
+        <v>38992</v>
       </c>
       <c r="AH11" t="n">
-        <v>16708</v>
+        <v>34504</v>
       </c>
       <c r="AI11" t="n">
-        <v>563</v>
+        <v>1093</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7157</v>
+        <v>11560</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>10738</v>
+        <v>14171</v>
       </c>
       <c r="AM11" t="n">
-        <v>344</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37614</v>
+        <v>68849</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>472299</v>
+        <v>824637</v>
       </c>
       <c r="F12" t="n">
-        <v>10685</v>
+        <v>18111</v>
       </c>
       <c r="G12" t="n">
-        <v>36708</v>
+        <v>55640</v>
       </c>
       <c r="H12" t="n">
-        <v>2956</v>
+        <v>5048</v>
       </c>
       <c r="I12" t="n">
-        <v>28167</v>
+        <v>43644</v>
       </c>
       <c r="J12" t="n">
-        <v>4046</v>
+        <v>7532</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3960</v>
+        <v>8349</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>11347</v>
+        <v>18006</v>
       </c>
       <c r="P12" t="n">
-        <v>894</v>
+        <v>1444</v>
       </c>
       <c r="Q12" t="n">
-        <v>2785</v>
+        <v>5955</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>525</v>
+        <v>1429</v>
       </c>
       <c r="T12" t="n">
-        <v>1292</v>
+        <v>1638</v>
       </c>
       <c r="U12" t="n">
-        <v>2814</v>
+        <v>4256</v>
       </c>
       <c r="V12" t="n">
-        <v>454</v>
+        <v>1299</v>
       </c>
       <c r="W12" t="n">
-        <v>4685</v>
+        <v>9939</v>
       </c>
       <c r="X12" t="n">
-        <v>52317</v>
+        <v>83232</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>2812</v>
+        <v>5070</v>
       </c>
       <c r="AA12" t="n">
-        <v>1825</v>
+        <v>3144</v>
       </c>
       <c r="AB12" t="n">
-        <v>11663</v>
+        <v>21739</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>44990</v>
+        <v>83710</v>
       </c>
       <c r="AE12" t="n">
-        <v>44338</v>
+        <v>78071</v>
       </c>
       <c r="AF12" t="n">
-        <v>5114</v>
+        <v>9103</v>
       </c>
       <c r="AG12" t="n">
-        <v>23093</v>
+        <v>47923</v>
       </c>
       <c r="AH12" t="n">
-        <v>19898</v>
+        <v>42410</v>
       </c>
       <c r="AI12" t="n">
-        <v>709</v>
+        <v>1548</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8095</v>
+        <v>13248</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>9805</v>
+        <v>16001</v>
       </c>
       <c r="AM12" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>48759</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>598072</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12736</v>
-      </c>
-      <c r="G13" t="n">
-        <v>42246</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3880</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32296</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5468</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>5944</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>13567</v>
-      </c>
-      <c r="P13" t="n">
-        <v>924</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3882</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>873</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1496</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2952</v>
-      </c>
-      <c r="V13" t="n">
-        <v>785</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7287</v>
-      </c>
-      <c r="X13" t="n">
-        <v>64676</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>3307</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2502</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15963</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>59290</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>55929</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6455</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>31787</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26859</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9491</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>12180</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>60111</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>714527</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15535</v>
-      </c>
-      <c r="G14" t="n">
-        <v>49404</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4640</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38295</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6903</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>7279</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>15606</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1047</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4317</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1160</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1365</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3310</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1046</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8555</v>
-      </c>
-      <c r="X14" t="n">
-        <v>74572</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>4359</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2404</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19462</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>72142</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>66619</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8348</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>38992</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34504</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1093</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11560</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>14171</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>642</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
